--- a/final_proj.xlsx
+++ b/final_proj.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\final_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final_proj_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="8865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="8865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
+    <sheet name="개발 일정" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
   <si>
     <t>Artist</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -647,11 +648,48 @@
     <t>loginSession</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>DB 및 레이아웃 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genre - DTO, DAO, Service 작성 및 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artist - DTO, DAO, Service 작성 및 insert, getList 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genre, Artist, Album 등 모든 테이블에 null가능한 값들을
+map으로 변환할 때 null값 체크해서 ""로 대체해주기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Album - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - DTO, DAO Interface 작성 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - mapper, DAO Impl, Service 작성해야함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,6 +1054,186 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,188 +1245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1498,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1514,190 +1561,190 @@
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1715,425 +1762,425 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="64" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="54" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="53" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36" t="s">
+      <c r="E35" s="31"/>
+      <c r="F35" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="24" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
+    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50" t="s">
-        <v>32</v>
-      </c>
+      <c r="F39" s="9"/>
     </row>
     <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="43" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27" t="s">
+      <c r="E48" s="22"/>
+      <c r="F48" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="39" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27" t="s">
+      <c r="E51" s="22"/>
+      <c r="F51" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="37" t="s">
+      <c r="E52" s="31"/>
+      <c r="F52" s="33" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2151,19 +2198,19 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="36" t="s">
+      <c r="F54" s="32" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2181,19 +2228,19 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="69" t="s">
+      <c r="E56" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="32" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2211,19 +2258,19 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2252,4 +2299,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="71">
+        <v>43249</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="71">
+        <v>43250</v>
+      </c>
+      <c r="B3" s="72"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="71">
+        <v>43251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final_proj.xlsx
+++ b/final_proj.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final_proj_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\final_proj\final_proj_doc-master\final_proj_doc-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>Artist</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(4000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>clob</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -561,8 +557,134 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>0(normal), 1(block), 2(deleted) default 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해싱 횟수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwLoop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSession</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 및 레이아웃 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genre - DTO, DAO, Service 작성 및 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artist - DTO, DAO, Service 작성 및 insert, getList 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genre, Artist, Album 등 모든 테이블에 null가능한 값들을
+map으로 변환할 때 null값 체크해서 ""로 대체해주기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Album - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - DTO, DAO Interface 작성 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - mapper, DAO Impl, Service 작성해야함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - mapper, DAO, Service 작성완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberPower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null, unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(인증전), 1(일반), 2(업로더), 6(정지), 8(탈퇴), 9(관리자)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberPower(power)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급 숫자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member 테이블 변경 및 MemberPower 테이블 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar2(</t>
     </r>
     <r>
       <rPr>
@@ -573,17 +695,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ower</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0(normal), 1(block), 2(deleted) default 0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
+      <t>600</t>
     </r>
     <r>
       <rPr>
@@ -594,25 +706,46 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>umber(1)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0(일반), 1(업로더), 3(정지), 8(탈퇴), 9(관리자)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해싱 횟수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwLoop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oregin key, not null</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberPower - 데이터 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(256)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
     </r>
     <r>
       <rPr>
@@ -623,13 +756,21 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>archar2(6)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>이메일 인증 key(영숫</t>
+      <t>uid 사용</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해싱용 salt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일인증용 sha256</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
     </r>
     <r>
       <rPr>
@@ -640,56 +781,103 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6자)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginSession</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 및 레이아웃 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Genre - DTO, DAO, Service 작성 및 테스트 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Artist - DTO, DAO, Service 작성 및 insert, getList 테스트 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Genre, Artist, Album 등 모든 테이블에 null가능한 값들을
-map으로 변환할 때 null값 체크해서 ""로 대체해주기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Album - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Music - DTO, DAO, Service 작성 및 insert, get 테스트 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member - DTO, DAO Interface 작성 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member - mapper, DAO Impl, Service 작성해야함</t>
+      <t>d값 사용</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapper 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncryptService 작성 및 MemberService에 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailService 작성 및 MemberService에 적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증링크대응용 jsp 생성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainController - 인증요청대응설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - DAO, mapper, Service에 인증대응 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountActivationEmailServiceImpl에서 세부링크 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberService에서 activation실행 전 power체크하여 0이면 수행하게하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member - activationEmail 내용 수정하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8필터 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메인페이지(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>html)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 레이아웃잡기(멜론 + soundcloud)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,7 +919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +961,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -1011,7 +1205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,8 +1227,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,15 +1313,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1167,15 +1355,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1215,9 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1233,8 +1409,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1245,24 +1427,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - 강조색4" xfId="5" builtinId="42"/>
     <cellStyle name="40% - 강조색1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - 강조색2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - 강조색3" xfId="4" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="7" builtinId="43"/>
     <cellStyle name="40% - 강조색6" xfId="6" builtinId="51"/>
     <cellStyle name="강조색1" xfId="1" builtinId="29"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1543,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F59"/>
+  <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1554,24 +1809,24 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
-        <v>64</v>
+      <c r="B4" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>4</v>
@@ -1579,26 +1834,26 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>67</v>
+      <c r="F4" s="45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33" t="s">
-        <v>34</v>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1612,23 +1867,23 @@
         <v>11</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="35" t="s">
-        <v>33</v>
+      <c r="F6" s="32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="33" t="s">
-        <v>30</v>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1648,7 +1903,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>5</v>
@@ -1656,7 +1911,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1666,54 +1921,54 @@
       <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>42</v>
+      <c r="D10" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="34" t="s">
-        <v>32</v>
+      <c r="F10" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>67</v>
+      <c r="F15" s="46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -1728,24 +1983,24 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>68</v>
+      <c r="E17" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1753,27 +2008,27 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32" t="s">
-        <v>29</v>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1787,75 +2042,75 @@
         <v>26</v>
       </c>
       <c r="E20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="26" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="55" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="40" t="s">
+      <c r="C22" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="D24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
@@ -1871,24 +2126,24 @@
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1899,177 +2154,177 @@
         <v>5</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="42" t="s">
+      <c r="C37" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="D39" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="70" t="s">
-        <v>51</v>
+      <c r="B43" s="59" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>5</v>
@@ -2079,34 +2334,34 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
+      <c r="B46" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="55" t="s">
+      <c r="F47" s="40" t="s">
         <v>71</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -2114,177 +2369,238 @@
         <v>1</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="31" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32" t="s">
+      <c r="E55" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6" t="s">
-        <v>75</v>
+    <row r="62" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="87"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="90" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2303,73 +2619,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="71">
+      <c r="A2" s="60">
         <v>43249</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>98</v>
+      <c r="B2" s="65" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="71">
+      <c r="A3" s="60">
         <v>43250</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="65"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="71">
+      <c r="A4" s="60">
         <v>43251</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
-        <v>102</v>
+      <c r="B8" s="61" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
+        <v>43252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/final_proj.xlsx
+++ b/final_proj.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\final_proj\final_proj_doc-master\final_proj_doc-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final_proj_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60B30196-3FCD-4203-AA7D-2FECA1CABD65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="8865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19125" windowHeight="8865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="144">
   <si>
     <t>Artist</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -838,10 +839,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Member - activationEmail 내용 수정하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UTF-8필터 설정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -873,11 +870,71 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Member - activationEmail 내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(멘트)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 수정하기</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emberServiceImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - activationKey 생성해시 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 마크업(로그인, 회원가입 기능 구현하기)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1231,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,6 +1475,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1430,85 +1568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1816,13 +1876,13 @@
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="42" t="s">
@@ -1946,13 +2006,13 @@
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
@@ -2163,13 +2223,13 @@
     </row>
     <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="41" t="s">
@@ -2204,19 +2264,19 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="69" t="s">
+      <c r="E33" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="65" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2238,22 +2298,22 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73" t="s">
+      <c r="E35" s="67"/>
+      <c r="F35" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="37" t="s">
@@ -2265,62 +2325,62 @@
       <c r="E36" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81" t="s">
+      <c r="E38" s="75"/>
+      <c r="F38" s="76" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="84"/>
+      <c r="F39" s="79"/>
     </row>
     <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
     </row>
     <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="59" t="s">
@@ -2339,13 +2399,13 @@
     </row>
     <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
@@ -2430,7 +2490,7 @@
       <c r="B52" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="91" t="s">
+      <c r="C52" s="86" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="22" t="s">
@@ -2502,7 +2562,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="72" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="44" t="s">
@@ -2514,7 +2574,7 @@
       <c r="E57" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="78" t="s">
+      <c r="F57" s="73" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2563,13 +2623,13 @@
     </row>
     <row r="62" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="87"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="38" t="s">
@@ -2587,19 +2647,19 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="89" t="s">
+      <c r="D65" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="89" t="s">
+      <c r="E65" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="90" t="s">
+      <c r="F65" s="85" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2618,11 +2678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2635,7 +2695,7 @@
       <c r="A2" s="60">
         <v>43249</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="92" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2643,7 +2703,7 @@
       <c r="A3" s="60">
         <v>43250</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="60">
@@ -2716,74 +2776,87 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="66" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>140</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="60">
+        <v>43255</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
